--- a/medicine/Sexualité et sexologie/La_Prairie_parfumée/La_Prairie_parfumée.xlsx
+++ b/medicine/Sexualité et sexologie/La_Prairie_parfumée/La_Prairie_parfumée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Prairie_parfum%C3%A9e</t>
+          <t>La_Prairie_parfumée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Prairie parfumée, de son nom complet La Prairie parfumée où s'ébattent les plaisirs (arabe : الروض العاطر في نزهة الخاطر) et parfois aussi intitulé Le Jardin parfumé, est un ouvrage de littérature érotique arabe écrit par Cheikh Nefzaoui au XVe siècle.
 Il traite de la sexualité dans ses multiples facettes. Il a pour le monde arabo-musulman une signification similaire à celle du Kamasutra pour la culture indienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Prairie_parfum%C3%A9e</t>
+          <t>La_Prairie_parfumée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le livre présente des opinions sur les qualités que l'homme et la femme devraient avoir pour être attrayants, donne des conseils sur les différentes pratiques sexuelles, met en garde contre les maladies liées à la sexualité et indique des remèdes pour les soigner. Il énumère également des noms désignant le pénis et le vagin, consacre une section à l'interprétation des rêves et décrit brièvement les pratiques sexuelles des animaux. Ces exposés alternent avec des histoires destinées à les illustrer et à divertir le lecteur. L'ouvrage jouit dans le monde arabe d'une réputation bien établie, semblable à celle des Mille et Une Nuits[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le livre présente des opinions sur les qualités que l'homme et la femme devraient avoir pour être attrayants, donne des conseils sur les différentes pratiques sexuelles, met en garde contre les maladies liées à la sexualité et indique des remèdes pour les soigner. Il énumère également des noms désignant le pénis et le vagin, consacre une section à l'interprétation des rêves et décrit brièvement les pratiques sexuelles des animaux. Ces exposés alternent avec des histoires destinées à les illustrer et à divertir le lecteur. L'ouvrage jouit dans le monde arabe d'une réputation bien établie, semblable à celle des Mille et Une Nuits.
 Il aurait été rédigé à la demande d'Abû Fâris `Abd al-`Azîz al-Mutawakkil, souverain hafside de Tunis. Selon l'introduction de la traduction anglaise de Jim Colville, Nefzaoui aurait probablement rédigé le texte entre 1410 et 1434.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Prairie_parfum%C3%A9e</t>
+          <t>La_Prairie_parfumée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première traduction dans une langue européenne est une traduction en français, due à un officier de l'armée française en Algérie qui ne se désigne que comme Baron R… (1850)[2]. L'ouvrage devient connu dans le monde anglo-saxon à travers une traduction réalisée en 1886 par l'aventurier et orientaliste victorien sir Richard Francis Burton sous le titre anglais de The Perfumed Garden of the Shaykh Nefzawi, le manuscrit français que Burton traduit étant celui imprimé par les éditions Isidore Liseux en 1886.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première traduction dans une langue européenne est une traduction en français, due à un officier de l'armée française en Algérie qui ne se désigne que comme Baron R… (1850). L'ouvrage devient connu dans le monde anglo-saxon à travers une traduction réalisée en 1886 par l'aventurier et orientaliste victorien sir Richard Francis Burton sous le titre anglais de The Perfumed Garden of the Shaykh Nefzawi, le manuscrit français que Burton traduit étant celui imprimé par les éditions Isidore Liseux en 1886.
 Le dernier chapitre de The Perfumed Garden of Sensual Delights, portant le numéro 21, est toutefois incomplet, apparemment en raison de son traitement de l'homosexualité et de la pédérastie. Lorsque Burton mourut à la fin 1890, il travaillait sur une nouvelle traduction du manuscrit original incluant le chapitre manquant. Celle-ci, qui devait porter le titre de The Scented Garden, ne fut jamais publiée car la veuve de Burton brûla le manuscrit peu après sa mort.
 Burton considérait que le livre pouvait être comparé aux œuvres de Pierre l'Arétin et de François Rabelais mais croyait que ce qui faisait son caractère unique en son genre était « le sérieux avec lequel les sujets les plus lascifs et obscènes sont présentés. » Il souligne toutefois que toutes les idées présentées ne sont pas originales : 
 « Ainsi, tout le récit de Moçama et Chedja est repris de l'œuvre de Tabari ; la description de différentes positions pour le coït, de même que les mouvements qui y sont liés, sont empruntés à des ouvrages indiens ; enfin, le livre Oiseaux et fleurs d'Azeddine El Mocadecci semble avoir été consulté afin de rédiger le chapitre sur l'interprétation des rêves. »
